--- a/results/ML/MLR_num_PSU_vs_Desertor/principalComponentAnalysis.xlsx
+++ b/results/ML/MLR_num_PSU_vs_Desertor/principalComponentAnalysis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_num_PSU_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_num_PSU_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B2F875-8416-4D34-AEB2-344EDFD1C9DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A115AE-9EB2-4301-9CF9-725E017BBDDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -444,10 +444,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>0.69199439647184624</v>
+        <v>0.69199439647184646</v>
       </c>
       <c r="C2" s="1">
-        <v>0.99999999999999978</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -455,7 +455,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>0.30800560352815359</v>
+        <v>0.30800560352815348</v>
       </c>
     </row>
   </sheetData>

--- a/results/ML/MLR_num_PSU_vs_Desertor/principalComponentAnalysis.xlsx
+++ b/results/ML/MLR_num_PSU_vs_Desertor/principalComponentAnalysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_num_PSU_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A115AE-9EB2-4301-9CF9-725E017BBDDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF9F8F7D-450D-4101-8DFB-0C4893A10E73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/results/ML/MLR_num_PSU_vs_Desertor/principalComponentAnalysis.xlsx
+++ b/results/ML/MLR_num_PSU_vs_Desertor/principalComponentAnalysis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_num_PSU_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_num_PSU_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF9F8F7D-450D-4101-8DFB-0C4893A10E73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33747B0B-E5D6-49AA-84CC-7A61E3E731B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/results/ML/MLR_num_PSU_vs_Desertor/principalComponentAnalysis.xlsx
+++ b/results/ML/MLR_num_PSU_vs_Desertor/principalComponentAnalysis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_num_PSU_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_num_PSU_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33747B0B-E5D6-49AA-84CC-7A61E3E731B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054A287D-76F9-4336-9E15-A1624B4FCA33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/results/ML/MLR_num_PSU_vs_Desertor/principalComponentAnalysis.xlsx
+++ b/results/ML/MLR_num_PSU_vs_Desertor/principalComponentAnalysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_num_PSU_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054A287D-76F9-4336-9E15-A1624B4FCA33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4A821D-7003-441E-BBA7-3137E1505FAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="evr" sheetId="1" r:id="rId1"/>

--- a/results/ML/MLR_num_PSU_vs_Desertor/principalComponentAnalysis.xlsx
+++ b/results/ML/MLR_num_PSU_vs_Desertor/principalComponentAnalysis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_num_PSU_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_num_PSU_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4A821D-7003-441E-BBA7-3137E1505FAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B31B975-277E-47FD-88F6-61AC8D97B5AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
